--- a/medicine/Psychotrope/Banff_(distillerie)/Banff_(distillerie).xlsx
+++ b/medicine/Psychotrope/Banff_(distillerie)/Banff_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Banff était une distillerie de whisky située dans la ville du même nom, dans la région du Speyside en Écosse, et qui opéra de 1863 à 1983.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première distillerie à porter le nom de Banff fut construite par James McKilligan &amp; Co. en 1824 à Inverboyndie, sur le territoire de la ville de Banff. En 1863, le propriétaire d'alors (James Simpson Jr.) fit construire une nouvelle distillerie, toujours à Inverboyndie. Celle-ci disposait d'un meilleur accès au chemin de fer (Great North of Scotland Railway) et d'une meilleure source d'eau.
 La distillerie a connu plusieurs incendies et explosions, en particulier le 9 mai 1877 où la plupart des bâtiments furent détruits, mis à part l'entrepôt. Après la reconstruction, un véhicule de pompier fut gardé dans les locaux. En 1932, une filiale de Distillers Company Limited racheta la distillerie et arrêta immédiatement la production.
@@ -547,7 +561,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les alambics étaient chauffés au charbon jusqu'en 1970, où de brûleurs à fuel furent mis en place.
 La distillerie pratiquait une triple distillation jusqu'en 1924.
